--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -575,7 +575,7 @@
         <v>45880</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45121</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45345</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44449</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44503</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45845</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44588</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44608.93834490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>45306</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44608.93869212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>45405</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>46058.33828703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44364</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44874</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45959</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>46029</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44608.93842592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>45841</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>45957</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45964</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44893</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45349</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44755</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>46052.45752314815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44608.93818287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45902.5921875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45946.41756944444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44513</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>45150.9028125</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44945</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45973.466875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44608.93849537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45196</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44771</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45811.73701388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45811.73290509259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>45897.58552083333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45832.70466435186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44608.93826388889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44964</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44363.75064814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44413</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44608.93856481482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45574</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>45356</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>45884.6115162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45807.57163194445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45813.5737037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45894</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45899.37550925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45820.58268518518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45905.57864583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>45912.34770833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45866</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45832.7002199074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45933.63640046296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45477.64990740741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45946</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45875.62949074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45873.43134259259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45254</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>45585</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>45476.45337962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44854</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>45530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>45216.62158564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44376</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44691</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44319</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44755</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44755</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44425.921875</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44602.93728009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44523</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44691</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44496</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44700</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44756</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44622</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44379</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44837</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44884.77400462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44627</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44642</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44387</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44442</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44413.64061342592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44451</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44449</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44427.35393518519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>44691</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>44629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44634</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44592.92069444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44663.90741898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44869</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44873.92946759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44873.92978009259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44462</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44755</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44391.67774305555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44383</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44383</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44834</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44663.89142361111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44418.70153935185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44427.38730324074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44550.59190972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44552</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44796</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44451</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44505.63130787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44663.88578703703</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44383</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44464</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44277</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44521</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44860</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44369</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44862</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45575</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44804</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>45613.6241087963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45275</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44330</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44874</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45698</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>45611.43986111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>45238.51141203703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45238.51541666667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44608</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45523</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45611.48670138889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45443</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45392.5745949074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45583.5820949074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>44960.9424537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44960</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>45583.57577546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45477.65798611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45054</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45540.49607638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44522</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45450.5350925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45665</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45548</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45573.37666666666</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44756</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44874</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45566</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44892</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45602.57842592592</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44517</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45884.61605324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45474</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44417</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45443</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45461</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45798</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45799.34627314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45541.45581018519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45572.63907407408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45169.93895833333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45568</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45803</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>45486.55885416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>45884.56866898148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45201</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>45187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45801</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44393.61309027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45601</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45601.60356481482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45592.39511574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44860</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45805</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         <v>45147</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>45807.55243055556</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45455</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45810.94515046296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45712.66653935185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44451</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>44451</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45002</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45891.6709375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45399.75060185185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45678</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45469.92849537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45568</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45611.51275462963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45894.68872685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45895.53284722222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45894</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45562</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45897.31237268518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45227.72846064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44477.66917824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45899.37665509259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45898.58672453704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45898.58983796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45558.53196759259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45898.64637731481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45898.6515625</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45334.95219907408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45898.39429398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45575</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45821.70905092593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45902</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45821.65634259259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45820.47928240741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>45820.59181712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>45820.663125</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45362</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45821.70695601852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45903.5825</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45472.38306712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>45180.36606481481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45820.48586805556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>45472.38951388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>45824</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>45905.56935185185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45906</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45477.59898148148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>45908</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45909.59424768519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45906</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45909.60006944444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>45505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>45910.59592592593</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>45401</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>45827.56185185185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45910.58450231481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45471.48976851852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>45914.72663194445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>45443.91856481481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44945</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45154</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45831.62880787037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45918.65290509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45334.9308912037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45919</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45919.4040625</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45918.66138888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45561.46952546296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45923.5744675926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45583.49565972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45923.5582175926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45635.58863425926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45919.92413194444</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>45227.71137731482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45832.70251157408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44884</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45482.92740740741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45832.51322916667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>45925</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45665</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45447.4431712963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45925</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>45925</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45925</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45631.70746527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45387</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44894</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>45764.33820601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44960.94096064815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45930.90633101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44547</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45838.4737962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45838.53458333333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45660.67420138889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45660</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45838.48664351852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44568</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45215</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45557.55927083334</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45936.57127314815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45707.37032407407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45934</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45936.54777777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45840</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45191</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45936.53575231481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45936.56884259259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45841.69265046297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45936.45960648148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45936.52267361111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45938.87472222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45938.88337962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45938.85912037037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45938.86293981481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45938.87078703703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45840</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45545.44503472222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45545</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45579</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45579</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45671.9077662037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45177</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45938</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45938.88127314814</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44973</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45870.56957175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>45845.47767361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45474.92802083334</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45477.66251157408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44467.35696759259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45939.8163425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45943</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45943.37378472222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>45944.36942129629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>45491.61465277777</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>45491.63013888889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45944.41394675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45316.60324074074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>45454</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45434.78520833333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45849.42799768518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45502</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>45246</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45849.53162037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45599.36493055556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45603.44844907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45852.89065972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45951</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45849.75715277778</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45855.41163194444</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45856.46564814815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45861.63548611111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45861.6377199074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45951.47849537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45798</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45863.44518518518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45862</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26001,7 +26001,7 @@
         <v>45862</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>45863.4059837963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>45862</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45866</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45953.5986574074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45868.53259259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45868</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>45957.58365740741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>45957.5815162037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>45297.46777777778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>45957.59032407407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>45957.59276620371</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45740</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>45957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45902</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45665.65054398148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45873.40927083333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44968</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44968</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44968</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45873.90025462963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44518</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>44578</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45877.48719907407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45877.49061342593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45498</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45406.84912037037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45012.49284722222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45169.48806712963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>44892</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45877.49121527778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45960.76377314814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45880.67576388889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45960.66344907408</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>44459</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45880.62</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28175,7 +28175,7 @@
         <v>45880.66762731481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>45475.52747685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>45878</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>45611</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>45356</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44356</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>44861</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45965.64547453704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45964</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45624</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28807,7 +28807,7 @@
         <v>45880.40678240741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45880.5109837963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>45878.51769675926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45878.52914351852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45964</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>45177</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>45882.55276620371</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45952</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45623.39898148148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45677.64444444444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45645</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>45497</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>45882.49021990741</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45970.59489583333</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45882.53196759259</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>45968.38071759259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>45970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45616</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45968.39101851852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>45246.55990740741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45970.62760416666</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45968.39515046297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45566.71395833333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45118.79663194445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45882.53162037037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45586.63122685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>45586</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>45968</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>45971.34447916667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45968</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45972.15770833333</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45580</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45972.42809027778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45973.44346064814</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45058</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>45973</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>45972.8428587963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45972.15158564815</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45972.42414351852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45972.4261574074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45973</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45545</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>45972.43684027778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45882.4903587963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>45973.48805555556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45972.42938657408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>45972.44777777778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>45972.39515046297</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>45972.45471064815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>45972.46211805556</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>45972.63541666666</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>45974.63704861111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45975</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>45560.59424768519</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45371</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45163.60116898148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>46021.54148148148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>46020.52609953703</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>46020.50987268519</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>46021.57800925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>45427.74662037037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45630</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>45218</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45981</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45981</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45981</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45981</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45980</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>46025</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>46025</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44308</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45136</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44988</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45592.41905092593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>45592.45144675926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45538.4730324074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>46029</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45682.50773148148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45265.59436342592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45247.50337962963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>46025</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>46029</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33613,7 +33613,7 @@
         <v>45989</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33670,7 +33670,7 @@
         <v>44778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33727,7 +33727,7 @@
         <v>46029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>46030</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>46029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>46031.34038194444</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>44755</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45558</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>46031.36267361111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>44834.70690972222</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>46029</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34255,7 +34255,7 @@
         <v>45988.49179398148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34312,7 +34312,7 @@
         <v>45722</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34369,7 +34369,7 @@
         <v>46029</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34431,7 +34431,7 @@
         <v>46031.36753472222</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>46035.38630787037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>46034</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>46034.65737268519</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45443</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45740.92456018519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45995.3859375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45136.85806712963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45314</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45589.88046296296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45593.48490740741</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>46038.56496527778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45401</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45031.25363425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>44417</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>46001.5986574074</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>45270.6325462963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>46000.7378587963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>46000.73221064815</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>45631.86152777778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>46000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>46001.60440972223</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>45572.63494212963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>46002.58997685185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>46002.46980324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>46002.46984953704</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         <v>45468</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36030,7 +36030,7 @@
         <v>46002.46958333333</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>46002.57755787037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>46002.46962962963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45210</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>44837</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>44552</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>46049.57355324074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46006.58962962963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46006.58384259259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>46048.42756944444</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>44908</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36677,7 +36677,7 @@
         <v>45755</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36734,7 +36734,7 @@
         <v>45440</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36791,7 +36791,7 @@
         <v>45736</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36848,7 +36848,7 @@
         <v>46049.42805555555</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>44755</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>46006.59833333334</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>44889</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45597.42755787037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         <v>45062.36662037037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37200,7 +37200,7 @@
         <v>45611.45568287037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>45449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>46008.39273148148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>46008.40052083333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45523</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45064</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45693.44825231482</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45548.5446875</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>46052.46858796296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44841.2909375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>46051.60105324074</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45271.92707175926</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45328</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44279</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45630</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>46052.56774305556</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>45370</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>45463.94180555556</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>46059.64246527778</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>45391</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44417</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44419.46515046297</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>46059.43944444445</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>46058</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>46059.635625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>46059.63711805556</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>46058.329375</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>44970</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>44860</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>45131</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45369</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45369</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45677</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>45215</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>45558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>45558.8234837963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44958</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>45418.92696759259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>45012.50460648148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44973</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>45450</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>44691</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44455</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45554.59304398148</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44471</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>45360.62126157407</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44417</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44417</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44417</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>44417</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45665</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>45307.43209490741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>44895</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>45247</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>44854</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40385,7 +40385,7 @@
         <v>44854</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>45613</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44944</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40561,7 +40561,7 @@
         <v>45114</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40618,7 +40618,7 @@
         <v>45586.63935185185</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40675,7 +40675,7 @@
         <v>45212.71053240741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>45408.05193287037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45204</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45485.52054398148</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>45385.33399305555</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>45121.36568287037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>45490.96008101852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45152</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>45362</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45566</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44641</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>45407.96989583333</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>45407.97009259259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44615</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44568</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45196</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>45356.96299768519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>45566.71771990741</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>45488.55291666667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45540</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45523</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45523</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45372</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45210</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44392.54153935185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>45524</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>45607.49136574074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42239,7 +42239,7 @@
         <v>45278.60908564815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42296,7 +42296,7 @@
         <v>45602</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42353,7 +42353,7 @@
         <v>45541.40069444444</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42410,7 +42410,7 @@
         <v>45637</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>45265</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42524,7 +42524,7 @@
         <v>45216</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>45258.39447916667</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42638,7 +42638,7 @@
         <v>45407.96980324074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44574</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>45218.71888888889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>45603.44631944445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44923</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45586.63793981481</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45210</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45709</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45770</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>44988</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>45371</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45379</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45427</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45671.86802083333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45594</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45631.83989583333</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>45136.86875</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>45475.53988425926</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>44988</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>45309.94634259259</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45309.94641203704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43870,7 +43870,7 @@
         <v>45630</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43927,7 +43927,7 @@
         <v>44832.58216435185</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>45583.49115740741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44743</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>45769</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44892.82552083334</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44959</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45463</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>45491.64596064815</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45621.71971064815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45418</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>45585</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44968</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>45251.68087962963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>45583.61528935185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45566</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>44824</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45154.93099537037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45427.7460300926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45736</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45630</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45163.50519675926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>45162.85289351852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>45592.36651620371</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>45033</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45484.60921296296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>45777.5744212963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45236</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>45777</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45777.65921296296</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>45558</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>45782</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>45780</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45838,7 +45838,7 @@
         <v>45740.9174537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>45786.69824074074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45786.3859837963</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44451</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>45006</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>45002</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>45791.36502314815</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45791.36490740741</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>45792.58125</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>45796.65706018519</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46443,7 +46443,7 @@
         <v>45797.36726851852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>45794</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>45796.63579861111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>45797.43649305555</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>45797.63663194444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
